--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Client ID</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>793524d7-45df-476a-8828-93ec1e0cbe01</t>
+  </si>
+  <si>
+    <t>Handyman POC Dashboards</t>
+  </si>
+  <si>
+    <t>76250fcc-e1ae-4463-99ec-08bed9196de1</t>
+  </si>
+  <si>
+    <t>4aae4dc7-dbba-4eeb-8046-ea6e5f9596b1</t>
   </si>
 </sst>
 </file>
@@ -519,13 +528,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +615,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -640,7 +649,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -677,7 +686,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -714,7 +723,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -725,7 +734,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D9" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D10" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -748,7 +757,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -785,7 +794,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -819,7 +828,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -853,7 +862,37 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-07-19 13:08:28', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=76250fcc-e1ae-4463-99ec-08bed9196de1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -866,9 +905,10 @@
     <hyperlink ref="D7" r:id="rId6" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D8" r:id="rId7" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D9" r:id="rId8" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -952,7 +992,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-07-19 13:08:28', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-08-23 08:45:48', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Client ID</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>4aae4dc7-dbba-4eeb-8046-ea6e5f9596b1</t>
+  </si>
+  <si>
+    <t>c0a41074-99f1-4bec-b724-5e361a1db518</t>
+  </si>
+  <si>
+    <t>Driver_Status_PHTADN</t>
+  </si>
+  <si>
+    <t>99d29fc8-6fc6-4db8-a507-563733e25588</t>
   </si>
 </sst>
 </file>
@@ -528,28 +537,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,7 +590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -615,10 +624,10 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -649,10 +658,10 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -686,10 +695,10 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -723,10 +732,10 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -734,7 +743,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D10" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D11" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -757,10 +766,10 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -794,10 +803,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -828,10 +837,10 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -862,10 +871,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-08-23 08:45:48', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -892,6 +901,36 @@
         <v>13</v>
       </c>
       <c r="J10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c0a41074-99f1-4bec-b724-5e361a1db518</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
         <v>22</v>
       </c>
     </row>
@@ -906,9 +945,10 @@
     <hyperlink ref="D8" r:id="rId7" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D9" r:id="rId8" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D10" r:id="rId9" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -921,12 +961,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -934,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -956,14 +996,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -992,7 +1032,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-08-23 08:45:48', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-18 12:11:42', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>Client ID</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t>99d29fc8-6fc6-4db8-a507-563733e25588</t>
+  </si>
+  <si>
+    <t>4774a40b-1b93-4e3b-9c19-b2a075fb88a8</t>
+  </si>
+  <si>
+    <t>role1</t>
+  </si>
+  <si>
+    <t>POC Dashboards - SGP1</t>
+  </si>
+  <si>
+    <t>5f47aab7-485e-40d3-9f5b-9fe42658802f</t>
+  </si>
+  <si>
+    <t>59d705ea-6a3a-451c-a3ce-94c9abfe48fc</t>
+  </si>
+  <si>
+    <t>POC Dashboards - UAT</t>
+  </si>
+  <si>
+    <t>c49e1c3a-034b-4227-aa71-4bb0cbffc9a0</t>
   </si>
 </sst>
 </file>
@@ -537,13 +558,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +645,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -658,7 +679,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -695,7 +716,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -732,7 +753,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -743,7 +764,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D11" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D13" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -766,7 +787,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -803,7 +824,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -837,7 +858,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -871,7 +892,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-18 12:11:42', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -932,6 +953,66 @@
       </c>
       <c r="J11">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4774a40b-1b93-4e3b-9c19-b2a075fb88a8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=59d705ea-6a3a-451c-a3ce-94c9abfe48fc</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -946,9 +1027,11 @@
     <hyperlink ref="D9" r:id="rId8" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D10" r:id="rId9" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D11" r:id="rId10" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1032,7 +1115,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-18 12:11:42', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-10 09:43:14', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>Client ID</t>
   </si>
@@ -221,6 +221,42 @@
   </si>
   <si>
     <t>c49e1c3a-034b-4227-aa71-4bb0cbffc9a0</t>
+  </si>
+  <si>
+    <t>Leaderboard Dashboard - PHSCEN</t>
+  </si>
+  <si>
+    <t>1c4b9310-2a89-4e84-85a4-4fc0bc8eda6c</t>
+  </si>
+  <si>
+    <t>ab9e1b3a-26c3-4429-b2ea-a9a8c8870145</t>
+  </si>
+  <si>
+    <t>Leaderboard Dashboard - PHTADN</t>
+  </si>
+  <si>
+    <t>42cfe133-5f95-4db9-b020-91ddc1b1a079</t>
+  </si>
+  <si>
+    <t>c1a96840-e6ca-472e-adc7-ba3040aac50e</t>
+  </si>
+  <si>
+    <t>Leaderboard Dashboard - PHSCEN - SGP1</t>
+  </si>
+  <si>
+    <t>80c2d860-f418-476e-9fe4-d530154b7d89</t>
+  </si>
+  <si>
+    <t>9c224477-932c-411c-a29f-043cc444683c</t>
+  </si>
+  <si>
+    <t>Leaderboard Dashboard - PHTADN - SGP1</t>
+  </si>
+  <si>
+    <t>b48f1be6-0247-48cf-834e-a2bfe81f7b78</t>
+  </si>
+  <si>
+    <t>7cd5578c-c3a7-4aaf-9018-552c6b509f18</t>
   </si>
 </sst>
 </file>
@@ -558,13 +594,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +681,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -679,7 +715,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -716,7 +752,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -753,7 +789,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -764,7 +800,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D13" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D17" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -787,7 +823,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,7 +860,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -858,7 +894,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -892,7 +928,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-10 09:43:14', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1012,6 +1048,114 @@
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1c4b9310-2a89-4e84-85a4-4fc0bc8eda6c</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=42cfe133-5f95-4db9-b020-91ddc1b1a079</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=80c2d860-f418-476e-9fe4-d530154b7d89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b48f1be6-0247-48cf-834e-a2bfe81f7b78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1029,9 +1173,13 @@
     <hyperlink ref="D11" r:id="rId10" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D12" r:id="rId11" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D13" r:id="rId12" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1115,7 +1263,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-10 09:43:14', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-25 15:07:52', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>Client ID</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>7cd5578c-c3a7-4aaf-9018-552c6b509f18</t>
+  </si>
+  <si>
+    <t>Driver_Status_PHT2GO</t>
+  </si>
+  <si>
+    <t>Driver_Status_PHTFAS</t>
+  </si>
+  <si>
+    <t>fa4045ac-6463-43c5-8821-c4e0bd8930b1</t>
+  </si>
+  <si>
+    <t>a57d1137-d2a0-41bb-bf16-eeb891f5204b</t>
+  </si>
+  <si>
+    <t>21f35950-8fb0-4ebc-ab24-6c45897108f9</t>
+  </si>
+  <si>
+    <t>de3453dc-d7ee-401b-9015-9aafcde0e615</t>
   </si>
 </sst>
 </file>
@@ -594,13 +612,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +699,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -715,7 +733,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -752,7 +770,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -789,7 +807,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -800,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D17" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D19" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -823,7 +841,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -860,7 +878,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -894,7 +912,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -928,7 +946,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-25 15:07:52', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1156,6 +1174,60 @@
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=fa4045ac-6463-43c5-8821-c4e0bd8930b1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a57d1137-d2a0-41bb-bf16-eeb891f5204b</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1177,9 +1249,11 @@
     <hyperlink ref="D15" r:id="rId14" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D16" r:id="rId15" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D17" r:id="rId16" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1263,7 +1337,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-25 15:07:52', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-11-14 12:56:47', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>Client ID</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>de3453dc-d7ee-401b-9015-9aafcde0e615</t>
+  </si>
+  <si>
+    <t>Wait Time Tracking - SGP04</t>
+  </si>
+  <si>
+    <t>f3ae7e59-8907-477c-94ab-2cdae984d1fb</t>
+  </si>
+  <si>
+    <t>b7367177-b91f-4ebb-9c61-c16a66383d49</t>
   </si>
 </sst>
 </file>
@@ -612,13 +621,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +708,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -733,7 +742,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -770,7 +779,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -807,7 +816,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -818,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D19" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D20" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -841,7 +850,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -878,7 +887,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -912,7 +921,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -946,7 +955,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-11-14 12:56:47', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1150,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
@@ -1228,6 +1237,36 @@
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f3ae7e59-8907-477c-94ab-2cdae984d1fb</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1251,9 +1290,10 @@
     <hyperlink ref="D17" r:id="rId16" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D18" r:id="rId17" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D19" r:id="rId18" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1377,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-11-14 12:56:47', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-11 19:53:01', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Client ID</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>b7367177-b91f-4ebb-9c61-c16a66383d49</t>
+  </si>
+  <si>
+    <t>Wait Time Tracking - SGP1</t>
+  </si>
+  <si>
+    <t>aa7fc522-5bfd-40f0-b645-e12a2fba339c</t>
+  </si>
+  <si>
+    <t>4471f259-66db-41ac-a9a6-f98c7613d3a5</t>
   </si>
 </sst>
 </file>
@@ -621,13 +630,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +717,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -742,7 +751,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -779,7 +788,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -816,7 +825,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -827,7 +836,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D20" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D21" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -850,7 +859,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -887,7 +896,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -921,7 +930,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -955,7 +964,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-11 19:53:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1267,6 +1276,36 @@
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=aa7fc522-5bfd-40f0-b645-e12a2fba339c</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1291,9 +1330,10 @@
     <hyperlink ref="D18" r:id="rId17" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D19" r:id="rId18" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D20" r:id="rId19" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1377,7 +1417,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-11 19:53:01', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-11 20:39:11', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>Client ID</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>4471f259-66db-41ac-a9a6-f98c7613d3a5</t>
+  </si>
+  <si>
+    <t>Container Tracking - SGP04</t>
+  </si>
+  <si>
+    <t>90738937-7324-458c-b173-5d98fabd77ef</t>
+  </si>
+  <si>
+    <t>cc7a2afd-faed-436d-98f6-a93800dbe52f</t>
+  </si>
+  <si>
+    <t>Carrier_CD, shipper</t>
   </si>
 </sst>
 </file>
@@ -630,13 +642,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +729,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,7 +763,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -788,7 +800,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,7 +837,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -836,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D21" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D22" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -859,7 +871,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -896,7 +908,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -930,7 +942,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -964,7 +976,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-11 20:39:11', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1251,7 +1263,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>83</v>
@@ -1281,7 +1293,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>86</v>
@@ -1306,6 +1318,36 @@
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=90738937-7324-458c-b173-5d98fabd77ef</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1331,9 +1373,10 @@
     <hyperlink ref="D19" r:id="rId18" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D20" r:id="rId19" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D21" r:id="rId20" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1417,7 +1460,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-11 20:39:11', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-17 03:07:10', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>Client ID</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>Carrier_CD, shipper</t>
+  </si>
+  <si>
+    <t>Cemex Team Compliance Reports</t>
+  </si>
+  <si>
+    <t>fb2459f6-67b4-45a9-a28a-970b05647120</t>
+  </si>
+  <si>
+    <t>bc690036-b05d-43d1-9caf-2d35e58cd640</t>
   </si>
 </sst>
 </file>
@@ -642,13 +651,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +738,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -763,7 +772,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -800,7 +809,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -837,7 +846,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -848,7 +857,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D22" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D23" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -871,7 +880,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -908,7 +917,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -942,7 +951,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -976,7 +985,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-17 03:07:10', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1348,6 +1357,33 @@
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=fb2459f6-67b4-45a9-a28a-970b05647120</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1374,9 +1410,10 @@
     <hyperlink ref="D20" r:id="rId19" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D21" r:id="rId20" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D22" r:id="rId21" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1460,7 +1497,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-17 03:07:10', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-01-28 14:19:35', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
   <si>
     <t>Client ID</t>
   </si>
@@ -314,6 +314,42 @@
   </si>
   <si>
     <t>bc690036-b05d-43d1-9caf-2d35e58cd640</t>
+  </si>
+  <si>
+    <t>Driver Management View</t>
+  </si>
+  <si>
+    <t>d12bf99f-d788-4a63-bc63-a4b4f2b867a8</t>
+  </si>
+  <si>
+    <t>fa44b6d8-df86-4af9-aba2-2adf412c195d</t>
+  </si>
+  <si>
+    <t>Driver Management View - SGP04</t>
+  </si>
+  <si>
+    <t>12531434-c034-452b-9705-9bb71e87ddbb</t>
+  </si>
+  <si>
+    <t>c6df5ff3-5856-4a0e-974b-d28e53b1f195</t>
+  </si>
+  <si>
+    <t>Drop and Swap View</t>
+  </si>
+  <si>
+    <t>b0baf027-996a-4861-b481-6d3f36d0f72a</t>
+  </si>
+  <si>
+    <t>7c37bfd8-70ce-4d8c-bb80-9cf09b910740</t>
+  </si>
+  <si>
+    <t>Ops View</t>
+  </si>
+  <si>
+    <t>ccfdb28d-926d-41d8-bb3f-2304db22c46c</t>
+  </si>
+  <si>
+    <t>3c0a9884-c1c1-4b88-885d-5909856e844f</t>
   </si>
 </sst>
 </file>
@@ -651,13 +687,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +774,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,7 +808,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -809,7 +845,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -846,7 +882,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -857,7 +893,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D23" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D27" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -880,7 +916,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -917,7 +953,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -951,7 +987,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -985,7 +1021,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-01-28 14:19:35', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1384,6 +1420,120 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d12bf99f-d788-4a63-bc63-a4b4f2b867a8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=12531434-c034-452b-9705-9bb71e87ddbb</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b0baf027-996a-4861-b481-6d3f36d0f72a</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=ccfdb28d-926d-41d8-bb3f-2304db22c46c</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1411,9 +1561,13 @@
     <hyperlink ref="D21" r:id="rId20" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D22" r:id="rId21" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D23" r:id="rId22" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -1497,7 +1651,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-01-28 14:19:35', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-17 20:56:37', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
   <si>
     <t>Client ID</t>
   </si>
@@ -350,6 +350,33 @@
   </si>
   <si>
     <t>3c0a9884-c1c1-4b88-885d-5909856e844f</t>
+  </si>
+  <si>
+    <t>Yard Inventory Dashboard</t>
+  </si>
+  <si>
+    <t>611a540b-ec4c-464c-a3e2-783bddaaf12c</t>
+  </si>
+  <si>
+    <t>4ee75d0e-cff2-4050-b695-c4d9ac62668d</t>
+  </si>
+  <si>
+    <t>ALL_Migration_uat</t>
+  </si>
+  <si>
+    <t>6909c19b-44cf-4918-a31e-9911f4a6e972</t>
+  </si>
+  <si>
+    <t>ae6b8950-6e29-49fe-a6eb-cd429ba0a7ef</t>
+  </si>
+  <si>
+    <t>c32b4d31-d4a0-407b-a11d-aba3fb47a225</t>
+  </si>
+  <si>
+    <t>carrier_dashboard_migration_uat</t>
+  </si>
+  <si>
+    <t>2588d3ba-0091-4c72-9c24-e02d8fc542d3</t>
   </si>
 </sst>
 </file>
@@ -687,19 +714,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -774,7 +801,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -808,7 +835,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -845,7 +872,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -882,7 +909,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -893,7 +920,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D27" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D30" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -916,7 +943,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -953,7 +980,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -987,7 +1014,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1021,7 +1048,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-17 20:56:37', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1534,6 +1561,96 @@
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=611a540b-ec4c-464c-a3e2-783bddaaf12c</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=6909c19b-44cf-4918-a31e-9911f4a6e972</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c32b4d31-d4a0-407b-a11d-aba3fb47a225</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1565,9 +1682,12 @@
     <hyperlink ref="D25" r:id="rId24" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D26" r:id="rId25" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D27" r:id="rId26" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -1651,7 +1771,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-17 20:56:37', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-28 10:36:24', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
   <si>
     <t>Client ID</t>
   </si>
@@ -377,6 +377,24 @@
   </si>
   <si>
     <t>2588d3ba-0091-4c72-9c24-e02d8fc542d3</t>
+  </si>
+  <si>
+    <t>03a0ef6a-42f0-4872-8e0a-477f8c167570</t>
+  </si>
+  <si>
+    <t>DOT Dashboard SGP04</t>
+  </si>
+  <si>
+    <t>5a5216a9-314a-4b44-a671-658059655d1c</t>
+  </si>
+  <si>
+    <t>Performance_Dashboard_Insight_v2_SGP04</t>
+  </si>
+  <si>
+    <t>b6eae2cd-9e73-4d03-aa75-e9e54094e793</t>
+  </si>
+  <si>
+    <t>e26bcfe0-2cf0-4074-b107-ac0cec1411c5</t>
   </si>
 </sst>
 </file>
@@ -714,28 +732,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -767,7 +785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,10 +819,10 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -835,10 +853,10 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -872,10 +890,10 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -909,10 +927,10 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -920,7 +938,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D30" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D32" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -943,10 +961,10 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -980,10 +998,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1014,10 +1032,10 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1048,10 +1066,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-28 10:36:24', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1279,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -1306,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
@@ -1333,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1651,6 +1669,63 @@
         <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=03a0ef6a-42f0-4872-8e0a-477f8c167570</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b6eae2cd-9e73-4d03-aa75-e9e54094e793</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1685,9 +1760,11 @@
     <hyperlink ref="D28" r:id="rId27" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D29" r:id="rId28" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D30" r:id="rId29" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -1700,12 +1777,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1735,14 +1812,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1771,7 +1848,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-28 10:36:24', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-12 12:54:21', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
   <si>
     <t>Client ID</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>e26bcfe0-2cf0-4074-b107-ac0cec1411c5</t>
+  </si>
+  <si>
+    <t>Loading and Unloading Duration - PHSCHA</t>
+  </si>
+  <si>
+    <t>c537e6cb-643a-4c47-ba7b-d4126cfe4df0</t>
+  </si>
+  <si>
+    <t>3f4896d1-1423-4c12-a85c-a37b84d01305</t>
   </si>
 </sst>
 </file>
@@ -732,28 +741,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -785,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -819,10 +828,10 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -853,10 +862,10 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -890,10 +899,10 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -927,10 +936,10 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,7 +947,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D32" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D33" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -961,10 +970,10 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,10 +1007,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1032,10 +1041,10 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1066,10 +1075,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-12 12:54:21', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1726,6 +1735,33 @@
         <v>12</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c537e6cb-643a-4c47-ba7b-d4126cfe4df0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1762,9 +1798,10 @@
     <hyperlink ref="D30" r:id="rId29" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D31" r:id="rId30" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D32" r:id="rId31" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -1777,12 +1814,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1812,14 +1849,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +1885,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-12 12:54:21', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-16 18:02:26', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
   <si>
     <t>Client ID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>dexter.olano@opnexplorer.com</t>
   </si>
   <si>
-    <t>eF3Sy$100</t>
-  </si>
-  <si>
     <t>if(username()="OPENPORT","",if(username()="OPENPT","",[Parent_Partner_Name])) = if(username()="OPENPORT","",if(username()="OPENPT","",username()))</t>
   </si>
   <si>
@@ -404,6 +401,75 @@
   </si>
   <si>
     <t>3f4896d1-1423-4c12-a85c-a37b84d01305</t>
+  </si>
+  <si>
+    <t>Yard Inventory Dashboard_SGP1</t>
+  </si>
+  <si>
+    <t>PARNTER_CD</t>
+  </si>
+  <si>
+    <t>56b24e0f-d5a1-42c0-ba7d-c05504858d69</t>
+  </si>
+  <si>
+    <t>d83d07ae-b2c8-4826-9bc8-b4367fbfac61</t>
+  </si>
+  <si>
+    <t>Incident Management Dashboard</t>
+  </si>
+  <si>
+    <t>f703c0ba-4faf-42a5-aa63-5d6801a85718</t>
+  </si>
+  <si>
+    <t>f2cfb8cd-85a9-4975-aaea-7a40c47cd4c3</t>
+  </si>
+  <si>
+    <t>InsIght$c$2020</t>
+  </si>
+  <si>
+    <t>Incident Management Dashboard_v2</t>
+  </si>
+  <si>
+    <t>a2716eea-9c20-4ed4-ba1c-c7fb7e41f8b9</t>
+  </si>
+  <si>
+    <t>0dc485ef-da96-46e0-ab3b-530236101a0c</t>
+  </si>
+  <si>
+    <t>Incident Management Dashboard_v3</t>
+  </si>
+  <si>
+    <t>3913968a-3066-42e2-8661-5c9ecf39e9b2</t>
+  </si>
+  <si>
+    <t>f9191f51-fa45-487a-a31d-b7f860dcbe78</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>e22eb915-235b-442a-814a-fd6c80b8ee87</t>
+  </si>
+  <si>
+    <t>e28b65fc-13ac-4d48-85db-da83f712fecf</t>
+  </si>
+  <si>
+    <t>New Survey Results_v2</t>
+  </si>
+  <si>
+    <t>4a607e3c-3236-4674-89a3-012a1efedad0</t>
+  </si>
+  <si>
+    <t>53215151-3b12-4f5a-94f4-c80b45e1a459</t>
+  </si>
+  <si>
+    <t>DA_v2</t>
+  </si>
+  <si>
+    <t>f2e3a6fa-96c7-4f54-9f3c-d03ae656a895</t>
+  </si>
+  <si>
+    <t>6255008f-3b75-4e7b-a925-479965c20d98</t>
   </si>
 </sst>
 </file>
@@ -741,13 +807,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -799,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D5" si="0">"https://app.powerbi.com/reportEmbed?reportId="&amp;C2</f>
@@ -812,31 +878,31 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J2">
         <v>22</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -846,34 +912,34 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -883,34 +949,34 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J4">
         <v>22</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -920,57 +986,57 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J5">
         <v>22</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6:D40" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D33" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
-        <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J6">
         <v>22</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -978,78 +1044,78 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>22</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J8">
         <v>22</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1062,47 +1128,47 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J9">
         <v>22</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-16 18:02:26', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=76250fcc-e1ae-4463-99ec-08bed9196de1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=76250fcc-e1ae-4463-99ec-08bed9196de1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J10">
         <v>22</v>
@@ -1110,29 +1176,29 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c0a41074-99f1-4bec-b724-5e361a1db518</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=c0a41074-99f1-4bec-b724-5e361a1db518</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="J11">
         <v>22</v>
@@ -1140,178 +1206,178 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4774a40b-1b93-4e3b-9c19-b2a075fb88a8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=4774a40b-1b93-4e3b-9c19-b2a075fb88a8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=59d705ea-6a3a-451c-a3ce-94c9abfe48fc</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=59d705ea-6a3a-451c-a3ce-94c9abfe48fc</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1c4b9310-2a89-4e84-85a4-4fc0bc8eda6c</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=1c4b9310-2a89-4e84-85a4-4fc0bc8eda6c</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=42cfe133-5f95-4db9-b020-91ddc1b1a079</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=42cfe133-5f95-4db9-b020-91ddc1b1a079</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=80c2d860-f418-476e-9fe4-d530154b7d89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=80c2d860-f418-476e-9fe4-d530154b7d89</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b48f1be6-0247-48cf-834e-a2bfe81f7b78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=b48f1be6-0247-48cf-834e-a2bfe81f7b78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1321,24 +1387,24 @@
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1348,277 +1414,277 @@
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f3ae7e59-8907-477c-94ab-2cdae984d1fb</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f3ae7e59-8907-477c-94ab-2cdae984d1fb</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=aa7fc522-5bfd-40f0-b645-e12a2fba339c</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=aa7fc522-5bfd-40f0-b645-e12a2fba339c</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=90738937-7324-458c-b173-5d98fabd77ef</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=90738937-7324-458c-b173-5d98fabd77ef</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=fb2459f6-67b4-45a9-a28a-970b05647120</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=fb2459f6-67b4-45a9-a28a-970b05647120</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d12bf99f-d788-4a63-bc63-a4b4f2b867a8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=d12bf99f-d788-4a63-bc63-a4b4f2b867a8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=12531434-c034-452b-9705-9bb71e87ddbb</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=12531434-c034-452b-9705-9bb71e87ddbb</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b0baf027-996a-4861-b481-6d3f36d0f72a</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=b0baf027-996a-4861-b481-6d3f36d0f72a</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=ccfdb28d-926d-41d8-bb3f-2304db22c46c</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=ccfdb28d-926d-41d8-bb3f-2304db22c46c</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=611a540b-ec4c-464c-a3e2-783bddaaf12c</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=611a540b-ec4c-464c-a3e2-783bddaaf12c</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1626,86 +1692,86 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=6909c19b-44cf-4918-a31e-9911f4a6e972</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=6909c19b-44cf-4918-a31e-9911f4a6e972</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c32b4d31-d4a0-407b-a11d-aba3fb47a225</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=c32b4d31-d4a0-407b-a11d-aba3fb47a225</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=03a0ef6a-42f0-4872-8e0a-477f8c167570</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=03a0ef6a-42f0-4872-8e0a-477f8c167570</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,56 +1779,248 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b6eae2cd-9e73-4d03-aa75-e9e54094e793</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=b6eae2cd-9e73-4d03-aa75-e9e54094e793</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c537e6cb-643a-4c47-ba7b-d4126cfe4df0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=c537e6cb-643a-4c47-ba7b-d4126cfe4df0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>13</v>
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=56b24e0f-d5a1-42c0-ba7d-c05504858d69</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f703c0ba-4faf-42a5-aa63-5d6801a85718</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a2716eea-9c20-4ed4-ba1c-c7fb7e41f8b9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=3913968a-3066-42e2-8661-5c9ecf39e9b2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=e22eb915-235b-442a-814a-fd6c80b8ee87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4a607e3c-3236-4674-89a3-012a1efedad0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f2e3a6fa-96c7-4f54-9f3c-d03ae656a895</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1799,9 +2057,16 @@
     <hyperlink ref="D31" r:id="rId30" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D32" r:id="rId31" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D33" r:id="rId32" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -1821,18 +2086,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1858,24 +2123,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2">
         <v>58</v>
@@ -1885,7 +2150,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-16 18:02:26', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-09 12:00:16', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -810,10 +810,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-09 12:00:16', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-09 12:00:16', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-11 14:08:09', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/Insightscs/dashboard_details_insight.xlsx
+++ b/Insightscs/dashboard_details_insight.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles" sheetId="2" r:id="rId2"/>
-    <sheet name="Analytics_menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard_Details_Old" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard_Details_Updated" sheetId="4" r:id="rId2"/>
+    <sheet name="Roles" sheetId="2" r:id="rId3"/>
+    <sheet name="Analytics_menu" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="245">
   <si>
     <t>Client ID</t>
   </si>
@@ -470,6 +471,297 @@
   </si>
   <si>
     <t>6255008f-3b75-4e7b-a925-479965c20d98</t>
+  </si>
+  <si>
+    <t>IATF_Consolidated_Dashboard</t>
+  </si>
+  <si>
+    <t>68e966f1-ba0f-44b8-a257-b6ce9f51cf3d</t>
+  </si>
+  <si>
+    <t>d1a25cb5-77f4-445d-ae4d-0e8fbce1f4d9</t>
+  </si>
+  <si>
+    <t>9cdf7bd6-cba3-49d6-8bc7-ced8eec1b6f0</t>
+  </si>
+  <si>
+    <t>6931d4d6-db60-4ac8-b4ce-2c2a62fc531e</t>
+  </si>
+  <si>
+    <t>be147b8a-308e-4cd4-b303-e834e01dd4ed</t>
+  </si>
+  <si>
+    <t>62e23762-84dc-4f2f-8349-a0edbaf505e8</t>
+  </si>
+  <si>
+    <t>bi-admin@haiso.app</t>
+  </si>
+  <si>
+    <t>In$ight$C$eF3Sy$100</t>
+  </si>
+  <si>
+    <t>scac_cd</t>
+  </si>
+  <si>
+    <t>5d92f321-bec8-46a0-8045-7174ebf6e05b</t>
+  </si>
+  <si>
+    <t>a63f3b07-3b51-4e1c-a965-c0187cc28992</t>
+  </si>
+  <si>
+    <t>99b2bcfa-b8f0-4f90-a8e3-8c9218ca5844</t>
+  </si>
+  <si>
+    <t>0f571a05-ca7d-40f4-8f11-591712696842</t>
+  </si>
+  <si>
+    <t>0fc4d86b-d846-469f-a7cf-2a22130152ce</t>
+  </si>
+  <si>
+    <t>a7e126f0-6c92-4f6b-9f89-ecff0c6e05f2</t>
+  </si>
+  <si>
+    <t>c0db044d-a81e-488e-9828-a7f38c637602</t>
+  </si>
+  <si>
+    <t>ceebea91-b0d2-44a4-8973-8ea8d5a23273</t>
+  </si>
+  <si>
+    <t>b50085d6-c96d-4d8a-aea1-18bedd7c51da</t>
+  </si>
+  <si>
+    <t>61f052d8-c17c-420c-baa3-cd4878ecceda</t>
+  </si>
+  <si>
+    <t>b3dbcd99-7a99-43c3-bcb7-97292d568d9c</t>
+  </si>
+  <si>
+    <t>946b6d57-8246-4be1-9887-d68ee73c5979</t>
+  </si>
+  <si>
+    <t>bd84a38a-87af-4df8-93ba-4ded6674981d</t>
+  </si>
+  <si>
+    <t>d64a20c1-abb0-4866-b550-47ee8721e638</t>
+  </si>
+  <si>
+    <t>2735db1e-612a-46d1-84c2-19f307506e39</t>
+  </si>
+  <si>
+    <t>6e07c4d9-62cf-4b93-a473-90d344d82082</t>
+  </si>
+  <si>
+    <t>d6e4abc1-ddfb-4e44-a9b9-55eb8ae0c1f9</t>
+  </si>
+  <si>
+    <t>a167fe02-a5f2-428c-85af-bca703017a96</t>
+  </si>
+  <si>
+    <t>f777621d-6c34-4206-9535-fae6b1c8e9e1</t>
+  </si>
+  <si>
+    <t>e72469a4-089e-4586-96b0-855fa0fef8bd</t>
+  </si>
+  <si>
+    <t>cd23a80d-befd-4cb8-87bd-b400af293aad</t>
+  </si>
+  <si>
+    <t>2bfc6532-6e26-4269-a7a5-c3cec541e4c1</t>
+  </si>
+  <si>
+    <t>ee7ad77b-f17c-43b8-ab32-adc6dc39b290</t>
+  </si>
+  <si>
+    <t>931f4014-2f16-4269-9441-f2d1ffe0537c</t>
+  </si>
+  <si>
+    <t>b2eaff49-9d85-4b2c-98e1-9f39aa1441ed</t>
+  </si>
+  <si>
+    <t>da4f9741-b9d6-43d9-b431-e2ba2b44ae67</t>
+  </si>
+  <si>
+    <t>b3a831b9-a8a8-4a98-9987-d9a9a2cf756b</t>
+  </si>
+  <si>
+    <t>00ced4fd-14d4-4c42-bb54-133fc276c1c8</t>
+  </si>
+  <si>
+    <t>a2bff6ed-73f6-4168-9eef-2311fe566328</t>
+  </si>
+  <si>
+    <t>1e7fdc87-78ba-4c32-96c6-936416aec158</t>
+  </si>
+  <si>
+    <t>9ba30197-8bd4-4b58-836a-38579a0682df</t>
+  </si>
+  <si>
+    <t>5f332478-5e1b-46d8-a6e2-a93ee35db5b8</t>
+  </si>
+  <si>
+    <t>5e67e13f-f472-41c4-b2b6-4ba2a33131c4</t>
+  </si>
+  <si>
+    <t>c0c5ad0f-359e-4cc1-9cc0-e800b1cb75c6</t>
+  </si>
+  <si>
+    <t>ffabbc9d-922e-4006-8fc2-216c9b8afc73</t>
+  </si>
+  <si>
+    <t>4b520ba9-7f55-463f-97b5-8429082a96cb</t>
+  </si>
+  <si>
+    <t>34cb290a-eb87-4126-a510-7c12c1a027ef</t>
+  </si>
+  <si>
+    <t>f6812f08-b78e-438b-b879-b1a686333b6c</t>
+  </si>
+  <si>
+    <t>c7ddc632-f543-46b3-bc35-4fa16d2d619e</t>
+  </si>
+  <si>
+    <t>cde62300-b44c-4bcf-b2ad-b5f44a3ae556</t>
+  </si>
+  <si>
+    <t>41394ecf-2952-42c7-9415-db4eb3595356</t>
+  </si>
+  <si>
+    <t>c4bc79f1-f62d-4cd8-95a1-4a7e20ce9649</t>
+  </si>
+  <si>
+    <t>d4422f72-f1d3-49e6-8e58-514ba7d37374</t>
+  </si>
+  <si>
+    <t>86752922-500c-4f27-9bca-df4bbc55b169</t>
+  </si>
+  <si>
+    <t>b0f9c6d5-7ef7-45b7-b04d-4d6392da3b61</t>
+  </si>
+  <si>
+    <t>7393cbf9-f3d0-4b33-a1b2-f80d4c8d2a09</t>
+  </si>
+  <si>
+    <t>2759e879-e943-4745-8a68-160280427af9</t>
+  </si>
+  <si>
+    <t>62aaf16d-3116-4e97-ac5e-80ec18a4bcb7</t>
+  </si>
+  <si>
+    <t>bb07c7e6-6b8a-4a55-9e21-29350aa1e9da</t>
+  </si>
+  <si>
+    <t>eb12c71d-4dc9-44cb-b91c-5ecd0db9702a</t>
+  </si>
+  <si>
+    <t>82d973ef-c896-4cbc-8f23-b295bf708ec2</t>
+  </si>
+  <si>
+    <t>48c66f91-242f-4c88-8434-c601ff840b79</t>
+  </si>
+  <si>
+    <t>b7b695cf-a3ea-4140-a66b-2a70afc98017</t>
+  </si>
+  <si>
+    <t>9f5785be-4aa6-48a9-bcf2-c2152e894f59</t>
+  </si>
+  <si>
+    <t>982e308b-2f63-4fe0-808a-ad2578ff908f</t>
+  </si>
+  <si>
+    <t>e47066d1-34d8-4962-bb40-b3ba45ce7030</t>
+  </si>
+  <si>
+    <t>bcc19e8d-32fe-42bb-b164-b9aeeb84db69</t>
+  </si>
+  <si>
+    <t>f8598ca4-6335-4a23-9821-029f8c2fa1f8</t>
+  </si>
+  <si>
+    <t>046e10db-4467-49eb-a91a-15fb13d2ed9a</t>
+  </si>
+  <si>
+    <t>5cb0169e-dcbe-49a7-b682-5fb455980c71</t>
+  </si>
+  <si>
+    <t>33f90b45-b7ab-4987-85be-88c108ceddf3</t>
+  </si>
+  <si>
+    <t>64d843ba-8b49-4c66-b80e-7c20f49f66bd</t>
+  </si>
+  <si>
+    <t>a78b2e58-c15a-44df-bf38-98df15109ee8</t>
+  </si>
+  <si>
+    <t>026ffc9d-58a2-4fa6-93ba-a54e43b79e02</t>
+  </si>
+  <si>
+    <t>629e49b4-bede-4c2c-aab5-fc7e786bfe28</t>
+  </si>
+  <si>
+    <t>f83e1f8b-f4ae-4b53-90c8-861f2a17b5bc</t>
+  </si>
+  <si>
+    <t>0962d4c5-1893-433f-9e31-49f7993ac219</t>
+  </si>
+  <si>
+    <t>763909ae-aad2-4d7f-83b7-c5e5166f8f82</t>
+  </si>
+  <si>
+    <t>30450cd0-6d38-4d77-b83a-3218c96b265b</t>
+  </si>
+  <si>
+    <t>3049ee39-f54e-4a43-9bcb-8dd427ef1261</t>
+  </si>
+  <si>
+    <t>50b652a7-80fb-4ff1-a25a-7b3106e18f15</t>
+  </si>
+  <si>
+    <t>2d7f1f8b-d123-4aec-b0e3-f02634afa4b8</t>
+  </si>
+  <si>
+    <t>DA_v3</t>
+  </si>
+  <si>
+    <t>1632cb62-3e96-4459-a08d-a27589c12f66</t>
+  </si>
+  <si>
+    <t>f9802605-5e3e-4c81-9c8a-7ab2e81d4275</t>
+  </si>
+  <si>
+    <t>Created_Dt</t>
+  </si>
+  <si>
+    <t>9e3a0869-65f9-4b16-a56a-6164b7d6913e</t>
+  </si>
+  <si>
+    <t>377567fb-35b9-4336-bb72-0ab57c211fa7</t>
+  </si>
+  <si>
+    <t>2afe5482-c39d-4c8b-a85a-e68a1ee99dbb</t>
+  </si>
+  <si>
+    <t>IATF_Consolidated_Dashboard_v2</t>
+  </si>
+  <si>
+    <t>ddee5f50-481b-491a-811d-ed0e305a7b1a</t>
+  </si>
+  <si>
+    <t>IATF_Consolidated_Dashboard_v3</t>
+  </si>
+  <si>
+    <t>a47585c1-5cca-40b3-8992-a2c0dbaf419f</t>
+  </si>
+  <si>
+    <t>46dc6ec1-623f-4907-b97d-e4fd29eb7d86</t>
+  </si>
+  <si>
+    <t>DA_v4</t>
+  </si>
+  <si>
+    <t>4da1d4dd-1e99-4560-9a52-80d6365ea28f</t>
+  </si>
+  <si>
+    <t>cac2a298-12e7-462f-85db-e5f245969320</t>
   </si>
 </sst>
 </file>
@@ -807,13 +1099,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,13 +1115,14 @@
     <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,25 +1136,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,30 +1171,34 @@
         <f t="shared" ref="D2:D5" si="0">"https://app.powerbi.com/reportEmbed?reportId="&amp;C2</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="E2" s="2" t="str">
+        <f ca="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2">
         <v>22</v>
       </c>
-      <c r="O2" t="str">
-        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="str">
+        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'https://app.powerbi.com/reportEmbed?reportId=8ac6f633-d16d-4cf9-a6b5-8463ca5e3a9c', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '38999606-0fa6-441c-845c-f3959c1a4b85', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -908,30 +1209,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E45" ca="1" si="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3">
         <v>22</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O9" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P9" ca="1" si="2">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_Insight', 'x', 'b0614131-5c19-4f57-9613-a78c0b368d34', 'https://app.powerbi.com/reportEmbed?reportId=b0614131-5c19-4f57-9613-a78c0b368d34', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'efc91411-38f5-455d-ac96-7939fa96fea2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -945,30 +1250,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'https://app.powerbi.com/reportEmbed?reportId=0e846bb0-c2e5-4f45-8072-4a01f3c3f9cd', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '2e74aed2-a842-4c91-b77a-fe9b647d81fb', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -982,30 +1291,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5">
         <v>22</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'https://app.powerbi.com/reportEmbed?reportId=1e1a12f9-4916-4068-ade9-8a9b4d8fc6d5', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'e7dbd8ad-69a0-4b77-9822-dd1cc0aaa2da', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1013,33 +1326,37 @@
         <v>47</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D40" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
+        <f t="shared" ref="D6:D41" si="3">"https://app.powerbi.com/reportEmbed?reportId="&amp;C6</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+      <c r="E6" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6">
         <v>22</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'db63575d-4b9c-4835-973e-14e717952f5b', 'https://app.powerbi.com/reportEmbed?reportId=db63575d-4b9c-4835-973e-14e717952f5b', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', 'a06f9120-fc56-4bcf-97b2-42f1c5e2f5a6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,33 +1367,37 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
+      <c r="E7" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7">
         <v>22</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', '132a3a80-bce6-40e5-98d4-183ed0f2676c', 'https://app.powerbi.com/reportEmbed?reportId=132a3a80-bce6-40e5-98d4-183ed0f2676c', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '276f4a0d-517f-4960-8b77-1ea8b9a522de', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1084,33 +1405,37 @@
         <v>49</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+      <c r="E8" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8">
         <v>22</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'https://app.powerbi.com/reportEmbed?reportId=db0f08fe-9c28-4397-aa7a-0fa8d7f156a9', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '070fc420-4fee-46c9-9774-1810e96501ea', '793524d7-45df-476a-8828-93ec1e0cbe01', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1118,33 +1443,37 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
+      <c r="E9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
         <v>22</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-11 14:08:09', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-27 18:29:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1152,29 +1481,33 @@
         <v>52</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=76250fcc-e1ae-4463-99ec-08bed9196de1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
+      <c r="E10" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1182,29 +1515,33 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=c0a41074-99f1-4bec-b724-5e361a1db518</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
+      <c r="E11" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1215,26 +1552,30 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4774a40b-1b93-4e3b-9c19-b2a075fb88a8</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
+      <c r="E12" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1245,26 +1586,30 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=59d705ea-6a3a-451c-a3ce-94c9abfe48fc</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
+      <c r="E13" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1272,26 +1617,30 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1c4b9310-2a89-4e84-85a4-4fc0bc8eda6c</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
+      <c r="E14" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1299,26 +1648,30 @@
         <v>68</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=42cfe133-5f95-4db9-b020-91ddc1b1a079</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
+      <c r="E15" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1326,26 +1679,30 @@
         <v>71</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=80c2d860-f418-476e-9fe4-d530154b7d89</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+      <c r="E16" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1353,26 +1710,30 @@
         <v>74</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=b48f1be6-0247-48cf-834e-a2bfe81f7b78</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
+      <c r="E17" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -1380,26 +1741,30 @@
         <v>78</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=fa4045ac-6463-43c5-8821-c4e0bd8930b1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
+      <c r="E18" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1407,26 +1772,30 @@
         <v>79</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a57d1137-d2a0-41bb-bf16-eeb891f5204b</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
+      <c r="E19" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -1437,26 +1806,30 @@
         <v>83</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f3ae7e59-8907-477c-94ab-2cdae984d1fb</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
+      <c r="E20" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1467,26 +1840,30 @@
         <v>86</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=aa7fc522-5bfd-40f0-b645-e12a2fba339c</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
+      <c r="E21" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -1497,26 +1874,30 @@
         <v>89</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=90738937-7324-458c-b173-5d98fabd77ef</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
+      <c r="E22" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
@@ -1524,26 +1905,30 @@
         <v>93</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=fb2459f6-67b4-45a9-a28a-970b05647120</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
+      <c r="E23" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1554,26 +1939,30 @@
         <v>96</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=d12bf99f-d788-4a63-bc63-a4b4f2b867a8</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
+      <c r="E24" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1584,26 +1973,30 @@
         <v>99</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=12531434-c034-452b-9705-9bb71e87ddbb</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
+      <c r="E25" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1611,26 +2004,30 @@
         <v>102</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=b0baf027-996a-4861-b481-6d3f36d0f72a</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
+      <c r="E26" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
@@ -1638,26 +2035,30 @@
         <v>105</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=ccfdb28d-926d-41d8-bb3f-2304db22c46c</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
+      <c r="E27" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1668,26 +2069,30 @@
         <v>108</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=611a540b-ec4c-464c-a3e2-783bddaaf12c</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
+      <c r="E28" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1698,26 +2103,30 @@
         <v>111</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=6909c19b-44cf-4918-a31e-9911f4a6e972</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
+      <c r="E29" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1728,26 +2137,30 @@
         <v>113</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=c32b4d31-d4a0-407b-a11d-aba3fb47a225</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
+      <c r="E30" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
@@ -1755,26 +2168,30 @@
         <v>116</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=03a0ef6a-42f0-4872-8e0a-477f8c167570</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
+      <c r="E31" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1785,26 +2202,30 @@
         <v>120</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=b6eae2cd-9e73-4d03-aa75-e9e54094e793</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
+      <c r="E32" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
@@ -1812,26 +2233,30 @@
         <v>123</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=c537e6cb-643a-4c47-ba7b-d4126cfe4df0</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
+      <c r="E33" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -1842,26 +2267,30 @@
         <v>127</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=56b24e0f-d5a1-42c0-ba7d-c05504858d69</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
+      <c r="E34" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>129</v>
       </c>
@@ -1869,26 +2298,30 @@
         <v>130</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f703c0ba-4faf-42a5-aa63-5d6801a85718</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
+      <c r="E35" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>133</v>
       </c>
@@ -1896,26 +2329,30 @@
         <v>134</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a2716eea-9c20-4ed4-ba1c-c7fb7e41f8b9</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
+      <c r="E36" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>136</v>
       </c>
@@ -1923,26 +2360,30 @@
         <v>137</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=3913968a-3066-42e2-8661-5c9ecf39e9b2</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
+      <c r="E37" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>139</v>
       </c>
@@ -1950,26 +2391,30 @@
         <v>140</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=e22eb915-235b-442a-814a-fd6c80b8ee87</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
+      <c r="E38" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>142</v>
       </c>
@@ -1977,26 +2422,30 @@
         <v>143</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4a607e3c-3236-4674-89a3-012a1efedad0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
+      <c r="E39" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>145</v>
       </c>
@@ -2004,22 +2453,181 @@
         <v>146</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f2e3a6fa-96c7-4f54-9f3c-d03ae656a895</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
+      <c r="E40" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=68e966f1-ba0f-44b8-a257-b6ce9f51cf3d</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" ref="D42:D45" si="4">"https://app.powerbi.com/reportEmbed?reportId="&amp;C42</f>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9e3a0869-65f9-4b16-a56a-6164b7d6913e</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2afe5482-c39d-4c8b-a85a-e68a1ee99dbb</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a47585c1-5cca-40b3-8992-a2c0dbaf419f</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4da1d4dd-1e99-4560-9a52-80d6365ea28f</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2064,13 +2672,1413 @@
     <hyperlink ref="D38" r:id="rId37" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D39" r:id="rId38" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D40" r:id="rId39" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D40" si="0">"https://app.powerbi.com/reportEmbed?reportId="&amp;C2</f>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9cdf7bd6-cba3-49d6-8bc7-ced8eec1b6f0</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f ca="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="P2" t="str">
+        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight', 'x', '9cdf7bd6-cba3-49d6-8bc7-ced8eec1b6f0', 'https://app.powerbi.com/reportEmbed?reportId=9cdf7bd6-cba3-49d6-8bc7-ced8eec1b6f0', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', '62e23762-84dc-4f2f-8349-a0edbaf505e8', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=5d92f321-bec8-46a0-8045-7174ebf6e05b</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E40" ca="1" si="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P9" ca="1" si="2">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'scac_cd','Driver_Status_Insight', 'x', '5d92f321-bec8-46a0-8045-7174ebf6e05b', 'https://app.powerbi.com/reportEmbed?reportId=5d92f321-bec8-46a0-8045-7174ebf6e05b', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', 'a63f3b07-3b51-4e1c-a965-c0187cc28992', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=99b2bcfa-b8f0-4f90-a8e3-8c9218ca5844</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Carrier_CD','Carrier_Dashboard_Insight', 'x', '99b2bcfa-b8f0-4f90-a8e3-8c9218ca5844', 'https://app.powerbi.com/reportEmbed?reportId=99b2bcfa-b8f0-4f90-a8e3-8c9218ca5844', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', '0f571a05-ca7d-40f4-8f11-591712696842', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=0fc4d86b-d846-469f-a7cf-2a22130152ce</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd','Liquidity Portal Dashboard (prod_insight)', 'x', '0fc4d86b-d846-469f-a7cf-2a22130152ce', 'https://app.powerbi.com/reportEmbed?reportId=0fc4d86b-d846-469f-a7cf-2a22130152ce', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', 'a7e126f0-6c92-4f6b-9f89-ecff0c6e05f2', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c0db044d-a81e-488e-9828-a7f38c637602</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', 'c0db044d-a81e-488e-9828-a7f38c637602', 'https://app.powerbi.com/reportEmbed?reportId=c0db044d-a81e-488e-9828-a7f38c637602', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', 'ceebea91-b0d2-44a4-8973-8ea8d5a23273', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b50085d6-c96d-4d8a-aea1-18bedd7c51da</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance_Dashboard_Insight_v2', 'x', 'b50085d6-c96d-4d8a-aea1-18bedd7c51da', 'https://app.powerbi.com/reportEmbed?reportId=b50085d6-c96d-4d8a-aea1-18bedd7c51da', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', '61f052d8-c17c-420c-baa3-cd4878ecceda', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b3dbcd99-7a99-43c3-bcb7-97292d568d9c</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', 'b3dbcd99-7a99-43c3-bcb7-97292d568d9c', 'https://app.powerbi.com/reportEmbed?reportId=b3dbcd99-7a99-43c3-bcb7-97292d568d9c', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', '946b6d57-8246-4be1-9887-d68ee73c5979', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bd84a38a-87af-4df8-93ba-4ded6674981d</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', 'bd84a38a-87af-4df8-93ba-4ded6674981d', 'https://app.powerbi.com/reportEmbed?reportId=bd84a38a-87af-4df8-93ba-4ded6674981d', 'x', '2020-04-27 18:29:19', 1, '6931d4d6-db60-4ac8-b4ce-2c2a62fc531e', 'be147b8a-308e-4cd4-b303-e834e01dd4ed', 'd64a20c1-abb0-4866-b550-47ee8721e638', 'bi-admin@haiso.app', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2735db1e-612a-46d1-84c2-19f307506e39</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d6e4abc1-ddfb-4e44-a9b9-55eb8ae0c1f9</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f777621d-6c34-4206-9535-fae6b1c8e9e1</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=cd23a80d-befd-4cb8-87bd-b400af293aad</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=ee7ad77b-f17c-43b8-ab32-adc6dc39b290</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b2eaff49-9d85-4b2c-98e1-9f39aa1441ed</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b3a831b9-a8a8-4a98-9987-d9a9a2cf756b</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a2bff6ed-73f6-4168-9eef-2311fe566328</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9ba30197-8bd4-4b58-836a-38579a0682df</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=5e67e13f-f472-41c4-b2b6-4ba2a33131c4</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=ffabbc9d-922e-4006-8fc2-216c9b8afc73</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=34cb290a-eb87-4126-a510-7c12c1a027ef</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c7ddc632-f543-46b3-bc35-4fa16d2d619e</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=41394ecf-2952-42c7-9415-db4eb3595356</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d4422f72-f1d3-49e6-8e58-514ba7d37374</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b0f9c6d5-7ef7-45b7-b04d-4d6392da3b61</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2759e879-e943-4745-8a68-160280427af9</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bb07c7e6-6b8a-4a55-9e21-29350aa1e9da</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=82d973ef-c896-4cbc-8f23-b295bf708ec2</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=b7b695cf-a3ea-4140-a66b-2a70afc98017</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=982e308b-2f63-4fe0-808a-ad2578ff908f</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bcc19e8d-32fe-42bb-b164-b9aeeb84db69</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=046e10db-4467-49eb-a91a-15fb13d2ed9a</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=33f90b45-b7ab-4987-85be-88c108ceddf3</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a78b2e58-c15a-44df-bf38-98df15109ee8</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=629e49b4-bede-4c2c-aab5-fc7e786bfe28</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=0962d4c5-1893-433f-9e31-49f7993ac219</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=30450cd0-6d38-4d77-b83a-3218c96b265b</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=50b652a7-80fb-4ff1-a25a-7b3106e18f15</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9e3a0869-65f9-4b16-a56a-6164b7d6913e</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1632cb62-3e96-4459-a08d-a27589c12f66</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-27 18:29:19</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D3:D40" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
@@ -2105,7 +4113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F2"/>
@@ -2150,7 +4158,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-11 14:08:09', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-27 18:29:19', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>
